--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_繳費通知範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_繳費通知範本1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -46,19 +46,16 @@
     <t>繳費通知</t>
   </si>
   <si>
-    <t>製發日期：</t>
-  </si>
-  <si>
-    <t>yyyy/MM/dd</t>
+    <t>製發日期：2025/01/19</t>
   </si>
   <si>
     <t>繳款通知單編號：</t>
   </si>
   <si>
-    <t>69309215-d354-47c8-be86-109548f72246</t>
-  </si>
-  <si>
-    <t>計費期間：2022/11/01~2022/11/30</t>
+    <t>32202e4f-5937-43ec-bed8-f77d613dcf30</t>
+  </si>
+  <si>
+    <t>計費期間：2020/05/01~2020/05/31</t>
   </si>
   <si>
     <t>下次填表日：</t>
@@ -67,7 +64,7 @@
     <t>客戶名稱：</t>
   </si>
   <si>
-    <t>Conroy - Boehm</t>
+    <t>Runolfsson - Volkman</t>
   </si>
   <si>
     <t>客戶統一編號：</t>
@@ -88,7 +85,7 @@
     <t>電話</t>
   </si>
   <si>
-    <t>繳費期限：2026/01/08</t>
+    <t>繳費期限：2025/06/27</t>
   </si>
   <si>
     <t>項次</t>
@@ -112,31 +109,31 @@
     <t>備註</t>
   </si>
   <si>
-    <t>Unbranded Rubber Ball</t>
-  </si>
-  <si>
-    <t>bleeding-edge</t>
-  </si>
-  <si>
-    <t>Perferendis aut iste id.</t>
-  </si>
-  <si>
-    <t>Sleek Soft Computer</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Qui alias dolores non soluta quo nisi labore placeat sequi.</t>
-  </si>
-  <si>
-    <t>Unbranded Cotton Car</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>Nihil blanditiis cumque ut esse totam eos rem facilis.</t>
+    <t>Unbranded Cotton Chicken</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>Iure error sed repudiandae minus delectus illum ea magnam accusantium.</t>
+  </si>
+  <si>
+    <t>Practical Plastic Tuna</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Consequatur facere dignissimos aperiam quaerat.</t>
+  </si>
+  <si>
+    <t>Fantastic Rubber Pizza</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>Libero corporis ad.</t>
   </si>
   <si>
     <t>未稅金額合計</t>
@@ -875,37 +872,35 @@
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" ht="14.5">
       <c r="A4" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="27"/>
     </row>
     <row r="5">
       <c r="A5" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -913,35 +908,35 @@
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>15</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>16</v>
       </c>
       <c r="I8" s="27"/>
     </row>
@@ -954,26 +949,26 @@
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
@@ -981,23 +976,23 @@
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="14">
+        <v>44.26</v>
+      </c>
+      <c r="G11" s="15">
+        <v>7</v>
+      </c>
+      <c r="H11" s="16">
+        <v>309</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="14">
-        <v>400.1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>47</v>
-      </c>
-      <c r="H11" s="16">
-        <v>18804</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" ht="37.9" customHeight="1">
@@ -1005,23 +1000,23 @@
         <v>2</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="17">
+        <v>989.74</v>
+      </c>
+      <c r="G12" s="15">
+        <v>69</v>
+      </c>
+      <c r="H12" s="16">
+        <v>68292</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="17">
-        <v>650.41</v>
-      </c>
-      <c r="G12" s="15">
-        <v>81</v>
-      </c>
-      <c r="H12" s="16">
-        <v>52683</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" ht="37.9" customHeight="1">
@@ -1029,23 +1024,23 @@
         <v>3</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="17">
+        <v>804.97</v>
+      </c>
+      <c r="G13" s="15">
+        <v>10</v>
+      </c>
+      <c r="H13" s="16">
+        <v>8049</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="17">
-        <v>380.15</v>
-      </c>
-      <c r="G13" s="15">
-        <v>35</v>
-      </c>
-      <c r="H13" s="16">
-        <v>13305</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" ht="37.9" customHeight="1">
@@ -1062,7 +1057,7 @@
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -1076,7 +1071,7 @@
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -1090,7 +1085,7 @@
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="B17" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1113,7 +1108,7 @@
     </row>
     <row r="19" ht="61.15" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1126,18 +1121,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1151,37 +1146,37 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1195,12 +1190,12 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_繳費通知範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_繳費通知範本1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -46,16 +46,16 @@
     <t>繳費通知</t>
   </si>
   <si>
-    <t>製發日期：2025/01/19</t>
+    <t>製發日期：2025/03/09</t>
   </si>
   <si>
     <t>繳款通知單編號：</t>
   </si>
   <si>
-    <t>32202e4f-5937-43ec-bed8-f77d613dcf30</t>
-  </si>
-  <si>
-    <t>計費期間：2020/05/01~2020/05/31</t>
+    <t>afdb6dcb-d324-4617-93c8-fe03efa7e9bc</t>
+  </si>
+  <si>
+    <t>計費期間：2022/12/01~2022/12/31</t>
   </si>
   <si>
     <t>下次填表日：</t>
@@ -64,28 +64,28 @@
     <t>客戶名稱：</t>
   </si>
   <si>
-    <t>Runolfsson - Volkman</t>
+    <t>Wilderman - Kris</t>
   </si>
   <si>
     <t>客戶統一編號：</t>
   </si>
   <si>
-    <t>統一編號</t>
+    <t>69917190</t>
   </si>
   <si>
     <t>客戶地址：</t>
   </si>
   <si>
-    <t>地址</t>
+    <t>0063 Jaquan Spur, Terryhaven, Moldova</t>
   </si>
   <si>
     <t>客戶連絡電話：</t>
   </si>
   <si>
-    <t>電話</t>
-  </si>
-  <si>
-    <t>繳費期限：2025/06/27</t>
+    <t>693.867.7596</t>
+  </si>
+  <si>
+    <t>繳費期限：2025/05/18</t>
   </si>
   <si>
     <t>項次</t>
@@ -109,31 +109,37 @@
     <t>備註</t>
   </si>
   <si>
-    <t>Unbranded Cotton Chicken</t>
-  </si>
-  <si>
-    <t>SSL</t>
-  </si>
-  <si>
-    <t>Iure error sed repudiandae minus delectus illum ea magnam accusantium.</t>
-  </si>
-  <si>
-    <t>Practical Plastic Tuna</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Consequatur facere dignissimos aperiam quaerat.</t>
-  </si>
-  <si>
-    <t>Fantastic Rubber Pizza</t>
-  </si>
-  <si>
-    <t>extend</t>
-  </si>
-  <si>
-    <t>Libero corporis ad.</t>
+    <t>Gorgeous Steel Computer</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>Pariatur ea dolores vel est.</t>
+  </si>
+  <si>
+    <t>Ergonomic Steel Bike</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Illum officiis vitae et magni quo corporis et hic.</t>
+  </si>
+  <si>
+    <t>Intelligent Metal Bacon</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Ullam dolor beatae non aut explicabo magnam quis.</t>
+  </si>
+  <si>
+    <t>Gorgeous Cotton Gloves</t>
+  </si>
+  <si>
+    <t>Laborum eligendi ratione enim voluptatem distinctio ex quia illum.</t>
   </si>
   <si>
     <t>未稅金額合計</t>
@@ -983,13 +989,13 @@
         <v>24</v>
       </c>
       <c r="F11" s="14">
-        <v>44.26</v>
+        <v>556.6880966285365</v>
       </c>
       <c r="G11" s="15">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="H11" s="16">
-        <v>309</v>
+        <v>43978</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>25</v>
@@ -1007,13 +1013,13 @@
         <v>27</v>
       </c>
       <c r="F12" s="17">
-        <v>989.74</v>
+        <v>324.20279382049836</v>
       </c>
       <c r="G12" s="15">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H12" s="16">
-        <v>68292</v>
+        <v>21073</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>28</v>
@@ -1031,13 +1037,13 @@
         <v>30</v>
       </c>
       <c r="F13" s="17">
-        <v>804.97</v>
+        <v>767.0635403515806</v>
       </c>
       <c r="G13" s="15">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H13" s="16">
-        <v>8049</v>
+        <v>49859</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>31</v>
@@ -1047,17 +1053,29 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19"/>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="14">
+        <v>375.29612213245065</v>
+      </c>
+      <c r="G14" s="15">
+        <v>41</v>
+      </c>
+      <c r="H14" s="16">
+        <v>15387</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -1071,7 +1089,7 @@
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -1085,7 +1103,7 @@
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="B17" s="28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1108,7 +1126,7 @@
     </row>
     <row r="19" ht="61.15" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1121,18 +1139,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1146,37 +1164,37 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1190,12 +1208,12 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_繳費通知範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_客戶_繳費通知範本1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -46,16 +46,16 @@
     <t>繳費通知</t>
   </si>
   <si>
-    <t>製發日期：2025/03/09</t>
+    <t>製發日期：2023/04/13</t>
   </si>
   <si>
     <t>繳款通知單編號：</t>
   </si>
   <si>
-    <t>afdb6dcb-d324-4617-93c8-fe03efa7e9bc</t>
-  </si>
-  <si>
-    <t>計費期間：2022/12/01~2022/12/31</t>
+    <t>20230413</t>
+  </si>
+  <si>
+    <t>計費期間：2022/07/01~2022/07/31</t>
   </si>
   <si>
     <t>下次填表日：</t>
@@ -64,28 +64,28 @@
     <t>客戶名稱：</t>
   </si>
   <si>
-    <t>Wilderman - Kris</t>
+    <t>台灣優衣庫有限公司</t>
   </si>
   <si>
     <t>客戶統一編號：</t>
   </si>
   <si>
-    <t>69917190</t>
+    <t>25117554</t>
   </si>
   <si>
     <t>客戶地址：</t>
   </si>
   <si>
-    <t>0063 Jaquan Spur, Terryhaven, Moldova</t>
+    <t>新北市板橋區縣民大道2段68號15樓</t>
   </si>
   <si>
     <t>客戶連絡電話：</t>
   </si>
   <si>
-    <t>693.867.7596</t>
-  </si>
-  <si>
-    <t>繳費期限：2025/05/18</t>
+    <t>02-8953-2486</t>
+  </si>
+  <si>
+    <t>繳費期限：2023/08/25</t>
   </si>
   <si>
     <t>項次</t>
@@ -109,37 +109,28 @@
     <t>備註</t>
   </si>
   <si>
-    <t>Gorgeous Steel Computer</t>
-  </si>
-  <si>
-    <t>GWh</t>
-  </si>
-  <si>
-    <t>Pariatur ea dolores vel est.</t>
-  </si>
-  <si>
-    <t>Ergonomic Steel Bike</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Illum officiis vitae et magni quo corporis et hic.</t>
-  </si>
-  <si>
-    <t>Intelligent Metal Bacon</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>Ullam dolor beatae non aut explicabo magnam quis.</t>
-  </si>
-  <si>
-    <t>Gorgeous Cotton Gloves</t>
-  </si>
-  <si>
-    <t>Laborum eligendi ratione enim voluptatem distinctio ex quia illum.</t>
+    <t>再生能源發電費</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>電代購憑證服務費用</t>
+  </si>
+  <si>
+    <t>式</t>
+  </si>
+  <si>
+    <t>再生能源憑證登錄費</t>
+  </si>
+  <si>
+    <t>張</t>
+  </si>
+  <si>
+    <t>再生能源憑證服務費</t>
   </si>
   <si>
     <t>未稅金額合計</t>
@@ -989,13 +980,13 @@
         <v>24</v>
       </c>
       <c r="F11" s="14">
-        <v>556.6880966285365</v>
+        <v>5.75</v>
       </c>
       <c r="G11" s="15">
-        <v>79</v>
+        <v>229290</v>
       </c>
       <c r="H11" s="16">
-        <v>43978</v>
+        <v>1318418</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>25</v>
@@ -1013,16 +1004,16 @@
         <v>27</v>
       </c>
       <c r="F12" s="17">
-        <v>324.20279382049836</v>
+        <v>12009</v>
       </c>
       <c r="G12" s="15">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="H12" s="16">
-        <v>21073</v>
+        <v>12009</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="37.9" customHeight="1">
@@ -1030,23 +1021,23 @@
         <v>3</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="17">
-        <v>767.0635403515806</v>
+        <v>690</v>
       </c>
       <c r="G13" s="15">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="H13" s="16">
-        <v>49859</v>
+        <v>690</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="37.9" customHeight="1">
@@ -1054,28 +1045,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F14" s="14">
-        <v>375.29612213245065</v>
+        <v>111</v>
       </c>
       <c r="G14" s="15">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="H14" s="16">
-        <v>15387</v>
+        <v>111</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -1083,13 +1074,13 @@
       <c r="F15" s="31"/>
       <c r="G15" s="24"/>
       <c r="H15" s="4">
-        <f>SUM(H11:H14)</f>
+        <v>1331228</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -1097,13 +1088,13 @@
       <c r="F16" s="31"/>
       <c r="G16" s="24"/>
       <c r="H16" s="4">
-        <f>ROUND(H15*5%,0)</f>
+        <v>66561</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="B17" s="28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1111,7 +1102,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
       <c r="H17" s="4">
-        <f>H15 + H16</f>
+        <v>1397789</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -1126,7 +1117,7 @@
     </row>
     <row r="19" ht="61.15" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1139,18 +1130,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1164,37 +1155,37 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1208,12 +1199,12 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
